--- a/Edit_text/文案.xlsx
+++ b/Edit_text/文案.xlsx
@@ -27,9 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
-  <si>
-    <t>接纳自己的不完美。很多事情并不是只有努力了就一定会有结果，其中掺杂了很多复杂的因素，差一点都不行。所以看开一点，不必强求自己什么都要做到，因为并不是所有的事情都能如愿以偿，也不是所有的事情自己都能做到的。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+  <si>
+    <t>，，</t>
   </si>
   <si>
     <t>https://files.mdnice.com/user/64731/cd7f55f1-5e73-4d49-b569-7c090c56c15a.jpg</t>
@@ -41,7 +41,7 @@
     <t>https://files.mdnice.com/user/64731/f0533d28-0234-4a4a-835a-a26a65c474b5.jpg</t>
   </si>
   <si>
-    <t>不和任何人情绪对立，只做观察者，淡定自若的看别人表演，我可以配合你，我可以无视你，这姿态凌驾于任何技巧之上，看那些人抱怨、猜疑、跳脚，你只需泡你的茶。</t>
+    <t>不和任何人情绪对立，只做观察，者，淡定自若的看别人表演，我可以配合你，我可以无视你，这姿态凌驾于任何技巧之上，看那些人抱怨、猜疑、跳脚，你只需泡你的茶。</t>
   </si>
   <si>
     <t>https://files.mdnice.com/user/64731/7ca76050-ca51-48c7-9a22-c512ae619a9d.jpg</t>
@@ -53,7 +53,7 @@
     <t>https://files.mdnice.com/user/64731/40985271-a692-4634-a5a2-dbb595bef768.jpg</t>
   </si>
   <si>
-    <t>内核稳定，换句话说就是允许一切发生，专注自身，尊重所有人的生活方式。为何稳定的人一般目标感很强或者足够平静，知道自己要什么不要什么，做很多事情也就更加高效和完善。</t>
+    <t>内核稳定，换句话说就是允许一，切发生，专注自身，尊重所有人的生活方式。为何稳定的人一般目标感很强或者足够平静，知道自己要什么不要什么，做很多事情也就更加高效和完善。</t>
   </si>
   <si>
     <t>https://files.mdnice.com/user/64731/2005a7cb-da10-4db4-93d6-ff5c8b90d704.jpg</t>
@@ -77,7 +77,7 @@
     <t>https://files.mdnice.com/user/64731/861288d1-179c-42e8-a998-dbe6682e55a2.jpg</t>
   </si>
   <si>
-    <t>释怀，让过去都过去，过去的你已经烟消云散，现在的你是崭新的灵魂。如果过度在意过去的痕迹，就是在浪费。现在请放下过去，对一切好的坏的都释怀。</t>
+    <t>释怀，让过去都过去，过去的你，已经烟消云散，现在的你是崭新的灵魂。如果过度在意过去的痕迹，就是在浪费。现在请放下过去，对一切好的坏的都释怀。</t>
   </si>
   <si>
     <t>https://files.mdnice.com/user/64731/0595c477-4a34-439c-9b86-4402c63a4f81.jpg</t>
@@ -89,7 +89,7 @@
     <t>https://files.mdnice.com/user/64731/2865c405-f7ef-4d7a-b055-984367067c52.jpg</t>
   </si>
   <si>
-    <t>减少精神内耗，森田疗法治疗焦虑症的核心是顺其自然，为所当为，这八个字应用在减少精神内耗上一样有效。不论你现在的情绪和内心冲突有多强烈，都由他去，也就是顺其自然。你任何试图直接解决精神内耗的想法和行为，都是在给情绪喂食能量，让他变得更加强大。对情绪无为，把注意力和精力投入到你该做的事情上，你才能减少精神内耗。</t>
+    <t>减少精神内耗，森田疗法治疗焦虑，症的核心是顺其自然，为所当为，这八个字应用在减少精神内耗上一样有效。不论你现在的情绪和内心冲突有多强烈，都由他去，也就是顺其自然。你任何试图直接解决精神内耗的想法和行为，都是在给情绪喂食能量，让他变得更加强大。对情绪无为，把注意力和精力投入到你该做的事情上，你才能减少精神内耗。</t>
   </si>
   <si>
     <t>https://files.mdnice.com/user/64731/77d6a6a8-4198-4a76-9d3a-9857630b457b.jpg</t>
@@ -113,7 +113,7 @@
     <t>https://files.mdnice.com/user/64731/d86fee7f-77f6-4dd8-9731-9b6f4582c468.jpg</t>
   </si>
   <si>
-    <t>拥有强大的肠胃和随时随地入睡的能力，这两个本领简直无敌。</t>
+    <t>拥有强大的肠胃和随时随地入睡的能，力，这两个本领简直无敌。</t>
   </si>
   <si>
     <t>https://files.mdnice.com/user/64731/d2b2f3b2-d443-4ff5-bfe3-3329b70d60d8.jpg</t>
@@ -152,52 +152,55 @@
     <t>拥有松弛感的三种心态：1、没人在意我 2、我可以不用那么完美 3、一切问题都有解决办法。墨菲定律：大数据不会骗人，当你刷到这里，点赞留下一句“我很好”，与过去和解，你将越来越顺利！❤️</t>
   </si>
   <si>
+    <t>吃好睡好。拥有“强大的肠胃”和“随，时随地入睡”这两个本领真.超级逆天，简直是一种资产。</t>
+  </si>
+  <si>
+    <t>绝不嫌弃自己！人不光得原谅别人，也得原谅自己，后者更难，因为我们一直被教导要内疚，因为内疚我们不堪重负。一个不堪重负的人没办法成长，一个内疚的人总是感到虚弱，他不容许自己的创伤得到疗愈。</t>
+  </si>
+  <si>
+    <t>不要拧巴！拧巴的人是这样的：因为害怕自己本非美玉，故而不敢加以刻苦琢磨，却又半信自己是块美玉，故又不肯庸庸碌碌，与瓦砾为伍。于是我渐渐地脱离凡尘，疏远世人，结果便是一任愤懑与差恨日益助长内心那怯弱的自尊心。拧巴的人，容易郁结于胸，长期处在低能量低自尊状态，精神上的负担又会催生身体的疲惫、抵抗力差，让病痛有机可乘。</t>
+  </si>
+  <si>
+    <t>学会释怀。生而为人烦恼事多，遇到事情要懂得释怀，凡事如果你能看得开，你自然活得就好，毕竟养生重在养心，保持稳定情绪可以避免大部分疾病，学会均衡营养可以强健身体，学会释怀，就会让烦恼和忧伤一并溜走。</t>
+  </si>
+  <si>
+    <t>永远不抱怨。把“这件事为什么发生在我身上"的怨念，转变成“这件事是为了教会我什么"的觉醒。当你换个角度看世界，你会发现：一切都是最好的安排。没事双击手机屏幕，可以缓解手指疲劳。</t>
+  </si>
+  <si>
+    <t>少说话，尽量克制表达欲望。把嘴巴理解为一个关隘，身体的能量循环走到嘴巴这里，一开口能量便会消耗，眼耳鼻口身意，凡使用则精气外泄，尽可能地让自己言少后，身体的能量可以更好的循环。中医上说寡言养气，寡视养神，寡欲养精。少说话可养气，少用眼、少看东西可养神，节制欲望则可养精。</t>
+  </si>
+  <si>
+    <t>具有旁观者意识。每天除了睡觉外的时，间，都处于旁观者意识，看着自己起床、洗漱、吃饭、出门、上班、回家等。也就是平时该做啥，你就继续做啥，只不过要处于旁观者意识。只是纯然的旁观，不加一丝一毫人为的是非善恶的判断（也就是道德经里说的无为，这是重点），刚开始注意力差，会动不动走神，发现走神了，注意力就回来了，然后继续旁观即可。慢慢练，每天练，注意力会越来越好，能长时间处于旁观之中。如果你能持续至少1小时在旁观之中，中间一点都不走神，修心。进展会大大加快。每天这样一天10多小时地练，几个月下来，慢慢就能脱离情绪、感受和想法的困扰，心不为物役，全天都处于平和清静而又专注的状态之中，一点内耗都没有，逐渐达到“恬淡虚无，真气从之，精神内守，病安从来”的境界。</t>
+  </si>
+  <si>
+    <t>人生只是一场体验，不必用来演绎完美。慢慢接纳自己身上那些晦暗的部分，原谅自己的迟钝和平庸，允许自己出错，允许事与愿违，接纳无常，带着缺憾拼命绽放，这是与自己达成和解的唯一办法。</t>
+  </si>
+  <si>
+    <t>告诉你们一些有用的冷知识：1、你所担心的事情96%不会发生；2、30秒的拥抱就可以缓解三分之一的压力；3、每周锻炼2次以上就能将因病死亡的概率减少23%；4、每天读书6分钟就能减轻68%的压力；5、运动20分钟就能提高20%的记忆力。我的意思是：要好好爱自己。❤️所以看到这里的你，点个赞留下一句“爱自己”，你将会越来越好。</t>
+  </si>
+  <si>
+    <t>接近大自然。晒太阳（很重要）抱，抱大树（树龄越大越好）抬头看天（天灵注入身体）。</t>
+  </si>
+  <si>
+    <t>你太用力了，所以才无力。做任何事一开始就拼尽全力，付出全部时间和精力。久而久之，越来越疲惫。没了冲劲和热情，一开始有多用力，后来就有多无力。《道德经》里有这样一句话：飘风不终朝，骤雨不终日。意思就是说：狂风不会刮一个早晨，暴雨也不会下一整天。真正能够长久下去的，是梅雨季节的绵绵细雨。</t>
+  </si>
+  <si>
+    <t>没有精神睡不好，就多运动。参考张学良，忧虑是人的健康最大的敌人，比慢性毒药还要毒一定要尽早走出，不想任何不属于现在的事情，过好现在的每一分每一秒，该睡就睡，该吃就吃，该喝就喝，别想太多有的没的，做好这一点，就基本打败80%的了。</t>
+  </si>
+  <si>
+    <t>写成功日记，下意识记录开心的小事。指甲做的很满意、被陌生人帮助、被别人夸赞、悟到一个道理……小事不足以改变你的人生，但当你把记录开心小事当作习惯，你的运气一定会越来越好。一定要相信吸引力法则，当你记录越多成功的小事、开心的瞬间，宇宙会给你送来更多成功和开心。</t>
+  </si>
+  <si>
+    <t>房屋一定要选内部能接收到太阳光的。太阳是万物能量之源，房屋内部多接收阳光，能暖身旺运，保证居住者情绪平稳积极，能量充沛。若是房屋内部接收不到阳光，则由阴生怖，居住者容易抑郁、想起难过的事、注意力不集中、冬日易四肢和后背寒凉。</t>
+  </si>
+  <si>
+    <t>少吃，节欲，多睡觉。人类最顶级的保养，不是健身运动，也不是各种保养品，而是，少吃，戒色，多睡觉。</t>
+  </si>
+  <si>
+    <t>具有旁观者意识。以局外人的心态，看待自己所处的环境，就能避免纠结与窘迫。“我是自己与世界的旁观者”，这是顶级的内功心法。</t>
+  </si>
+  <si>
     <t>吃好睡好。拥有“强大的肠胃”和“随时随地入睡”这两个本领真.超级逆天，简直是一种资产。</t>
-  </si>
-  <si>
-    <t>绝不嫌弃自己！人不光得原谅别人，也得原谅自己，后者更难，因为我们一直被教导要内疚，因为内疚我们不堪重负。一个不堪重负的人没办法成长，一个内疚的人总是感到虚弱，他不容许自己的创伤得到疗愈。</t>
-  </si>
-  <si>
-    <t>不要拧巴！拧巴的人是这样的：因为害怕自己本非美玉，故而不敢加以刻苦琢磨，却又半信自己是块美玉，故又不肯庸庸碌碌，与瓦砾为伍。于是我渐渐地脱离凡尘，疏远世人，结果便是一任愤懑与差恨日益助长内心那怯弱的自尊心。拧巴的人，容易郁结于胸，长期处在低能量低自尊状态，精神上的负担又会催生身体的疲惫、抵抗力差，让病痛有机可乘。</t>
-  </si>
-  <si>
-    <t>学会释怀。生而为人烦恼事多，遇到事情要懂得释怀，凡事如果你能看得开，你自然活得就好，毕竟养生重在养心，保持稳定情绪可以避免大部分疾病，学会均衡营养可以强健身体，学会释怀，就会让烦恼和忧伤一并溜走。</t>
-  </si>
-  <si>
-    <t>永远不抱怨。把“这件事为什么发生在我身上"的怨念，转变成“这件事是为了教会我什么"的觉醒。当你换个角度看世界，你会发现：一切都是最好的安排。没事双击手机屏幕，可以缓解手指疲劳。</t>
-  </si>
-  <si>
-    <t>少说话，尽量克制表达欲望。把嘴巴理解为一个关隘，身体的能量循环走到嘴巴这里，一开口能量便会消耗，眼耳鼻口身意，凡使用则精气外泄，尽可能地让自己言少后，身体的能量可以更好的循环。中医上说寡言养气，寡视养神，寡欲养精。少说话可养气，少用眼、少看东西可养神，节制欲望则可养精。</t>
-  </si>
-  <si>
-    <t>具有旁观者意识。每天除了睡觉外的时间，都处于旁观者意识，看着自己起床、洗漱、吃饭、出门、上班、回家等。也就是平时该做啥，你就继续做啥，只不过要处于旁观者意识。只是纯然的旁观，不加一丝一毫人为的是非善恶的判断（也就是道德经里说的无为，这是重点），刚开始注意力差，会动不动走神，发现走神了，注意力就回来了，然后继续旁观即可。慢慢练，每天练，注意力会越来越好，能长时间处于旁观之中。如果你能持续至少1小时在旁观之中，中间一点都不走神，修心。进展会大大加快。每天这样一天10多小时地练，几个月下来，慢慢就能脱离情绪、感受和想法的困扰，心不为物役，全天都处于平和清静而又专注的状态之中，一点内耗都没有，逐渐达到“恬淡虚无，真气从之，精神内守，病安从来”的境界。</t>
-  </si>
-  <si>
-    <t>人生只是一场体验，不必用来演绎完美。慢慢接纳自己身上那些晦暗的部分，原谅自己的迟钝和平庸，允许自己出错，允许事与愿违，接纳无常，带着缺憾拼命绽放，这是与自己达成和解的唯一办法。</t>
-  </si>
-  <si>
-    <t>告诉你们一些有用的冷知识：1、你所担心的事情96%不会发生；2、30秒的拥抱就可以缓解三分之一的压力；3、每周锻炼2次以上就能将因病死亡的概率减少23%；4、每天读书6分钟就能减轻68%的压力；5、运动20分钟就能提高20%的记忆力。我的意思是：要好好爱自己。❤️所以看到这里的你，点个赞留下一句“爱自己”，你将会越来越好。</t>
-  </si>
-  <si>
-    <t>接近大自然。晒太阳（很重要）抱抱大树（树龄越大越好）抬头看天（天灵注入身体）。</t>
-  </si>
-  <si>
-    <t>你太用力了，所以才无力。做任何事一开始就拼尽全力，付出全部时间和精力。久而久之，越来越疲惫。没了冲劲和热情，一开始有多用力，后来就有多无力。《道德经》里有这样一句话：飘风不终朝，骤雨不终日。意思就是说：狂风不会刮一个早晨，暴雨也不会下一整天。真正能够长久下去的，是梅雨季节的绵绵细雨。</t>
-  </si>
-  <si>
-    <t>没有精神睡不好，就多运动。参考张学良，忧虑是人的健康最大的敌人，比慢性毒药还要毒一定要尽早走出，不想任何不属于现在的事情，过好现在的每一分每一秒，该睡就睡，该吃就吃，该喝就喝，别想太多有的没的，做好这一点，就基本打败80%的了。</t>
-  </si>
-  <si>
-    <t>写成功日记，下意识记录开心的小事。指甲做的很满意、被陌生人帮助、被别人夸赞、悟到一个道理……小事不足以改变你的人生，但当你把记录开心小事当作习惯，你的运气一定会越来越好。一定要相信吸引力法则，当你记录越多成功的小事、开心的瞬间，宇宙会给你送来更多成功和开心。</t>
-  </si>
-  <si>
-    <t>房屋一定要选内部能接收到太阳光的。太阳是万物能量之源，房屋内部多接收阳光，能暖身旺运，保证居住者情绪平稳积极，能量充沛。若是房屋内部接收不到阳光，则由阴生怖，居住者容易抑郁、想起难过的事、注意力不集中、冬日易四肢和后背寒凉。</t>
-  </si>
-  <si>
-    <t>少吃，节欲，多睡觉。人类最顶级的保养，不是健身运动，也不是各种保养品，而是，少吃，戒色，多睡觉。</t>
-  </si>
-  <si>
-    <t>具有旁观者意识。以局外人的心态，看待自己所处的环境，就能避免纠结与窘迫。“我是自己与世界的旁观者”，这是顶级的内功心法。</t>
   </si>
   <si>
     <t>学会释怀。生而为人烦恼事多，遇到事情要懂得释怀，凡事如果你能看得开，你自然活得就好，毕竟养生重在养心。</t>
@@ -219,14 +222,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,158 +678,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,11 +1181,12 @@
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
+    <col min="1" max="1" width="50.625" customWidth="1"/>
     <col min="2" max="2" width="70.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1531,7 +1528,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
@@ -1539,7 +1536,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
@@ -1547,7 +1544,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>9</v>
@@ -1555,7 +1552,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>11</v>
